--- a/数据整理/stocks/A股/上证主板/603338-浙江鼎力.xlsx
+++ b/数据整理/stocks/A股/上证主板/603338-浙江鼎力.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3975,4 +3976,744 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7413</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6271</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5372</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4398</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4149</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3062</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2886</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2779</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603338-浙江鼎力.xlsx
+++ b/数据整理/stocks/A股/上证主板/603338-浙江鼎力.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4716,4 +4717,1656 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0878</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1605</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9856</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9515</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8228</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7726</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6701</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6516</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6045</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5460</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4041</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3970</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3486</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3101</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3026</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2837</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2798</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2756</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2386</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2133</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>68.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>68.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603338-浙江鼎力.xlsx
+++ b/数据整理/stocks/A股/上证主板/603338-浙江鼎力.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6369,4 +6370,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>41</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603338-浙江鼎力.xlsx
+++ b/数据整理/stocks/A股/上证主板/603338-浙江鼎力.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6378,7 +6379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6389,17 +6390,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6409,14 +6430,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>42</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.43</v>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0966</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -6425,14 +6468,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.24</v>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9870</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -6441,14 +6506,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>49</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.31</v>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4635</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -6457,13 +6544,1633 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1540</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9445</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8796</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7526</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7493</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7416</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6453</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6018</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5534</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4734</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4511</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>35.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4332</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4245</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4199</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3468</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2670</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>73.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1837</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.48</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>41</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>17.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603338-浙江鼎力.xlsx
+++ b/数据整理/stocks/A股/上证主板/603338-浙江鼎力.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8069,7 +8070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8080,17 +8081,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8100,14 +8121,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>43</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.44</v>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9608</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -8116,14 +8159,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>42</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.43</v>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9305</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -8132,14 +8197,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.24</v>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5618</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -8148,14 +8235,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>49</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.31</v>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4917</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -8164,13 +8273,1003 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4145</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2850</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2526</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2340</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1913</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010668</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>51.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010669</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>51.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>49</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>41</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>17.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603338-浙江鼎力.xlsx
+++ b/数据整理/stocks/A股/上证主板/603338-浙江鼎力.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9152,7 +9153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9163,17 +9164,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9183,14 +9204,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.37</v>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0011</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -9199,14 +9242,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.44</v>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7293</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -9215,14 +9280,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>42</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.43</v>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0041</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -9231,14 +9318,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.24</v>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8358</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -9247,14 +9356,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>49</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.31</v>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6184</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -9263,13 +9394,1243 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5559</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5219</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4678</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3087</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2770</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2741</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2643</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1883</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>39.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>970032</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>970033</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010668</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010669</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011391</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>39.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>49</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.31</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>41</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>17.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603338-浙江鼎力.xlsx
+++ b/数据整理/stocks/A股/上证主板/603338-浙江鼎力.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>9.83</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>5.37</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>20.44</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>13.43</v>
+        <v>20.44</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D6" t="n">
-        <v>5.24</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>18.31</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>49</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18.31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>41</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>17.12</v>
       </c>
     </row>
@@ -600,6 +617,1122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1640</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4554</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4067</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3979</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3753</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3454</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2771</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2247</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013559</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012004</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>38.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国信价值智选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013560</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012495</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>民生加银双核动力混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>53.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>38.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014971</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1943,7 +3076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3025,7 +4158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4715,7 +5848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6367,7 +7500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7107,7 +8240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9025,7 +10158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603338-浙江鼎力.xlsx
+++ b/数据整理/stocks/A股/上证主板/603338-浙江鼎力.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>5.09</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>9.83</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>5.37</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>20.44</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" t="n">
-        <v>13.43</v>
+        <v>20.44</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D7" t="n">
-        <v>5.24</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>18.31</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1644 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>49</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>41</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>17.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4348</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9532</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2129</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2129</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1264</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9809</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7806</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7496</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6575</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5566</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4515</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4179</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3658</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3427</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3045</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2825</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002932</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>圆信永丰强化收益债券A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>25.26</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002933</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>圆信永丰强化收益债券C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2248,2030 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5644</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8818</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7343</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5370</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5246</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安核心混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3650</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3534</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3287</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013559</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2632</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2592</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2562</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2399</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国信价值智选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013560</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009409</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012495</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>民生加银双核动力混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.12</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013655</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009410</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014971</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>016181</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>016293</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华安核心混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1732,7 +5387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3076,7 +6731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4158,7 +7813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5848,7 +9503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7500,7 +11155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8240,7 +11895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10156,1618 +13811,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>110010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达价值成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>59.84</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.4348</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001705</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泓德战略转型股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>41.47</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.93</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.9532</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>260116</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城核心竞争力混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>32.43</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.01</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2129</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>960008</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城核心竞争力混合H</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>32.43</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.01</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.2129</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>310308</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>申万菱信盛利精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>22.71</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>73.74</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.1264</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519087</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>新华优选分红混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>15.48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.80</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.1130</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001695</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泓德泓业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>20.96</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>70.99</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.9809</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>217009</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商核心价值混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12.55</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.22</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.7806</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005268</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华优势企业股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>18.74</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>95.01</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.7496</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519156</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>新华行业轮换灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>10.29</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.44</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.6575</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001040</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>新华策略精选股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8.55</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.5566</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009800</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长盛制造精选混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>11.43</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.93</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.4515</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>160603</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华普天收益混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>78.67</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.84</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.4179</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>217010</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>招商大盘蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>9.94</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.70</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.3658</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002846</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>泓德泓华灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.90</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.3427</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002259</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏华健康环保灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.80</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3045</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008811</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏华科技创新混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2825</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>010155</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>长盛核心成长混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1962</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>160813</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.20</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1378</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002249</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商境远灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>88.10</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1378</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002932</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>圆信永丰强化收益债券A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>20.91</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1234</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008526</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华泰柏瑞行业精选混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1215</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>003601</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫精选混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1195</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009015</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>泓德睿享一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>29.64</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1090</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>210010</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>金鹰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>8.44</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>25.26</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0498</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>350005</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>天治中国制造2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.94</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0349</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>003016</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中金中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0229</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009801</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>长盛制造精选混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.93</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0201</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>006564</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>圆信永丰精选回报混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0191</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>003602</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫精选混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0145</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>004135</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>申万菱信量化成长混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>008527</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>华泰柏瑞行业精选混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>003578</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>中金中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>010156</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>长盛核心成长混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0108</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>007084</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>天治转型升级混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>519157</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>新华行业轮换灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>89.44</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>009336</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>平安中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>95.78</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>009337</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>平安中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>95.78</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>210011</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>金鹰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>25.26</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>002933</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>圆信永丰强化收益债券C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>009016</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>泓德睿享一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>29.64</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>